--- a/1-Survey/output/Survey_tables_to_TripGen.xlsx
+++ b/1-Survey/output/Survey_tables_to_TripGen.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://resourcesystemsgroupinc-my.sharepoint.com/personal/michael_mccarthy_rsginc_com/Documents/My Documents/Projects/2020-08-10 SCOG/Trip Generation/SurveyProcessing/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.mccarthy\Documents\SCOG\scog_github\scog_model\1-Survey\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6A4B44-8184-4B0E-88D1-6F05192098D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11205" xr2:uid="{B0D1706C-DB6B-4F77-88BB-81278330BDEB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -121,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -248,13 +247,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,11 +591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4EA4DF-7A7D-4838-820D-5927E5EF39C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,12 +628,12 @@
         <v>2</v>
       </c>
       <c r="K3" s="4"/>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -685,7 +684,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -721,7 +720,7 @@
       <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="5" t="s">
         <v>14</v>
       </c>
@@ -756,7 +755,7 @@
       <c r="E7">
         <v>0.41236892400000003</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="5" t="s">
         <v>15</v>
       </c>
@@ -771,9 +770,9 @@
         <f>D7</f>
         <v>0.18332526099999999</v>
       </c>
-      <c r="O7" s="7">
-        <f>E7</f>
-        <v>0.41236892400000003</v>
+      <c r="O7" s="8">
+        <f>AVERAGE(E7,E8)</f>
+        <v>0.46889034499999999</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -792,7 +791,7 @@
       <c r="E8">
         <v>0.52541176599999995</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="5" t="s">
         <v>16</v>
       </c>
@@ -807,9 +806,9 @@
         <f t="shared" si="0"/>
         <v>0.22229327600000001</v>
       </c>
-      <c r="O8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.52541176599999995</v>
+      <c r="O8" s="9">
+        <f>O7</f>
+        <v>0.46889034499999999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,12 +823,12 @@
         <v>2</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -880,7 +879,7 @@
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -917,7 +916,7 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="5" t="s">
         <v>14</v>
       </c>
@@ -953,7 +952,7 @@
       <c r="E14">
         <v>0.20658200327661699</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="5" t="s">
         <v>15</v>
       </c>
@@ -969,7 +968,7 @@
         <f>D14</f>
         <v>0.51258592638864997</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="8">
         <f>E14</f>
         <v>0.20658200327661699</v>
       </c>
@@ -990,7 +989,7 @@
       <c r="E15">
         <v>0.76949183716149505</v>
       </c>
-      <c r="J15" s="13"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1005,7 @@
         <f>D15</f>
         <v>0.89262702408927397</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="9">
         <f>E15</f>
         <v>0.76949183716149505</v>
       </c>
@@ -1019,12 +1018,12 @@
         <v>2</v>
       </c>
       <c r="K17" s="4"/>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1075,7 +1074,7 @@
       <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -1112,7 +1111,7 @@
       <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="5" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1147,7 @@
       <c r="E21">
         <v>0.73120937889914495</v>
       </c>
-      <c r="J21" s="13"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1163,7 @@
         <f>D21</f>
         <v>0.50910235484032795</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="8">
         <f>E21</f>
         <v>0.73120937889914495</v>
       </c>
@@ -1185,7 +1184,7 @@
       <c r="E22">
         <v>0.84217012580612705</v>
       </c>
-      <c r="J22" s="13"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1201,7 +1200,7 @@
         <f>D22</f>
         <v>0.62131535528102799</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="9">
         <f>E22</f>
         <v>0.84217012580612705</v>
       </c>
